--- a/dataset/calls/db.xlsx
+++ b/dataset/calls/db.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,15 +757,113 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44341.94014139246</v>
+        <v>44341.94014138889</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44341.94082570841</v>
+        <v>44341.94082570602</v>
       </c>
       <c r="C24" t="n">
         <v>59.124428</v>
       </c>
       <c r="D24" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44341.94082614583</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>44341.94141357639</v>
+      </c>
+      <c r="C25" t="n">
+        <v>50.761023</v>
+      </c>
+      <c r="D25" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44341.94141450232</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>44341.94186119213</v>
+      </c>
+      <c r="C26" t="n">
+        <v>38.605176</v>
+      </c>
+      <c r="D26" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44341.94186199074</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>44341.94214050926</v>
+      </c>
+      <c r="C27" t="n">
+        <v>24.057929</v>
+      </c>
+      <c r="D27" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44341.94214087963</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>44341.94255005787</v>
+      </c>
+      <c r="C28" t="n">
+        <v>35.357054</v>
+      </c>
+      <c r="D28" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44341.94255041666</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>44341.94291172454</v>
+      </c>
+      <c r="C29" t="n">
+        <v>31.217136</v>
+      </c>
+      <c r="D29" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44341.94291237269</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>44341.94324465278</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28.698448</v>
+      </c>
+      <c r="D30" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44341.94324509296</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>44341.94361543619</v>
+      </c>
+      <c r="C31" t="n">
+        <v>31.993619</v>
+      </c>
+      <c r="D31" t="n">
         <v>201</v>
       </c>
     </row>
